--- a/data/pca/factorExposure/factorExposure_2017-01-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.009826203869833116</v>
+        <v>0.01417081480079511</v>
       </c>
       <c r="C2">
-        <v>0.02901417367931099</v>
+        <v>0.03903335229853259</v>
       </c>
       <c r="D2">
-        <v>-0.03059542939034773</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03195453451653597</v>
+      </c>
+      <c r="E2">
+        <v>0.05356295874915259</v>
+      </c>
+      <c r="F2">
+        <v>-0.01278683384773359</v>
+      </c>
+      <c r="G2">
+        <v>-0.1055533035538685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05632529726799609</v>
+        <v>0.03638821121110331</v>
       </c>
       <c r="C3">
-        <v>0.1130749720064158</v>
+        <v>0.09287801009595878</v>
       </c>
       <c r="D3">
-        <v>-0.02571243911478802</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01883213094709234</v>
+      </c>
+      <c r="E3">
+        <v>0.101701601081703</v>
+      </c>
+      <c r="F3">
+        <v>-0.02036652926995781</v>
+      </c>
+      <c r="G3">
+        <v>-0.1160930606492443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05513396471103633</v>
+        <v>0.05513901155467069</v>
       </c>
       <c r="C4">
-        <v>0.06282948745601762</v>
+        <v>0.05900292266322849</v>
       </c>
       <c r="D4">
-        <v>-0.02861942458821796</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0267946988963849</v>
+      </c>
+      <c r="E4">
+        <v>0.05226706834254258</v>
+      </c>
+      <c r="F4">
+        <v>-0.002585660856379474</v>
+      </c>
+      <c r="G4">
+        <v>-0.09530860087714246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01559149245541748</v>
+        <v>0.03398986164876812</v>
       </c>
       <c r="C6">
-        <v>0.05323162011775388</v>
+        <v>0.04296253881312743</v>
       </c>
       <c r="D6">
-        <v>-0.02480883427022799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01963576387716065</v>
+      </c>
+      <c r="E6">
+        <v>0.05805182179926142</v>
+      </c>
+      <c r="F6">
+        <v>-0.008192556958714577</v>
+      </c>
+      <c r="G6">
+        <v>-0.08583933793975529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01483810314722325</v>
+        <v>0.0204058487044681</v>
       </c>
       <c r="C7">
-        <v>0.04049348039355251</v>
+        <v>0.03358352628200442</v>
       </c>
       <c r="D7">
-        <v>-0.01902531610552444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01546631674908995</v>
+      </c>
+      <c r="E7">
+        <v>0.02488297356283972</v>
+      </c>
+      <c r="F7">
+        <v>-0.0001515281819426972</v>
+      </c>
+      <c r="G7">
+        <v>-0.1259432061610466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.00285699877421404</v>
+        <v>0.004360450594959719</v>
       </c>
       <c r="C8">
-        <v>0.008316006368921599</v>
+        <v>0.01934030168524898</v>
       </c>
       <c r="D8">
-        <v>-0.003960603170738075</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004766897280893384</v>
+      </c>
+      <c r="E8">
+        <v>0.03693384028191494</v>
+      </c>
+      <c r="F8">
+        <v>-0.005064990966034402</v>
+      </c>
+      <c r="G8">
+        <v>-0.07145962282879287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02337109791286775</v>
+        <v>0.0339408419038808</v>
       </c>
       <c r="C9">
-        <v>0.04099399695429952</v>
+        <v>0.044025691588547</v>
       </c>
       <c r="D9">
-        <v>-0.01980385298923367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01768365204583741</v>
+      </c>
+      <c r="E9">
+        <v>0.03680934642077738</v>
+      </c>
+      <c r="F9">
+        <v>-0.001689885875349331</v>
+      </c>
+      <c r="G9">
+        <v>-0.1013691929712055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1031558343728682</v>
+        <v>0.09681361469523929</v>
       </c>
       <c r="C10">
-        <v>-0.1718928444639463</v>
+        <v>-0.1914212000328914</v>
       </c>
       <c r="D10">
-        <v>0.05951410753939441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01520734181934684</v>
+      </c>
+      <c r="E10">
+        <v>0.01792613085226829</v>
+      </c>
+      <c r="F10">
+        <v>-0.02660662068111529</v>
+      </c>
+      <c r="G10">
+        <v>-0.0531103122983172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.03284456950117783</v>
+        <v>0.03553610743006694</v>
       </c>
       <c r="C11">
-        <v>0.05833766939254601</v>
+        <v>0.0513953832624772</v>
       </c>
       <c r="D11">
-        <v>-0.008572925498988823</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002930769797338556</v>
+      </c>
+      <c r="E11">
+        <v>0.0254805588034157</v>
+      </c>
+      <c r="F11">
+        <v>0.01421850882628094</v>
+      </c>
+      <c r="G11">
+        <v>-0.07644108390232521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03190693859497384</v>
+        <v>0.03720096888151118</v>
       </c>
       <c r="C12">
-        <v>0.04917354853919017</v>
+        <v>0.04541260552860513</v>
       </c>
       <c r="D12">
-        <v>-0.0119076748920212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.007203634708646407</v>
+      </c>
+      <c r="E12">
+        <v>0.01725740547356277</v>
+      </c>
+      <c r="F12">
+        <v>0.004499190342930218</v>
+      </c>
+      <c r="G12">
+        <v>-0.07564166164820164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.00592126793604979</v>
+        <v>0.01107840552124363</v>
       </c>
       <c r="C13">
-        <v>0.02674381388790652</v>
+        <v>0.03317364053417598</v>
       </c>
       <c r="D13">
-        <v>-0.02818486934954458</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03003687844215103</v>
+      </c>
+      <c r="E13">
+        <v>0.06323026094128702</v>
+      </c>
+      <c r="F13">
+        <v>-0.015208764376139</v>
+      </c>
+      <c r="G13">
+        <v>-0.1346578710653278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.005335629624821028</v>
+        <v>0.008720058615094145</v>
       </c>
       <c r="C14">
-        <v>0.02752752078595775</v>
+        <v>0.02409832954702987</v>
       </c>
       <c r="D14">
-        <v>-0.01311925729290766</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01183374220201209</v>
+      </c>
+      <c r="E14">
+        <v>0.02170015488752515</v>
+      </c>
+      <c r="F14">
+        <v>-0.00726916195698182</v>
+      </c>
+      <c r="G14">
+        <v>-0.1163616427848368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.02854198993067892</v>
+        <v>0.03401107591135688</v>
       </c>
       <c r="C16">
-        <v>0.04246089826254597</v>
+        <v>0.04421823552609714</v>
       </c>
       <c r="D16">
-        <v>-0.005821736206609312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002713240566104447</v>
+      </c>
+      <c r="E16">
+        <v>0.02296660165604877</v>
+      </c>
+      <c r="F16">
+        <v>-0.004364386863712489</v>
+      </c>
+      <c r="G16">
+        <v>-0.08342006393489328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02177118279085373</v>
+        <v>0.01789778556251021</v>
       </c>
       <c r="C19">
-        <v>0.05408720946275867</v>
+        <v>0.04738404392046561</v>
       </c>
       <c r="D19">
-        <v>-0.02246111952100574</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02293934631204911</v>
+      </c>
+      <c r="E19">
+        <v>0.1009517672884013</v>
+      </c>
+      <c r="F19">
+        <v>-0.009775223535045851</v>
+      </c>
+      <c r="G19">
+        <v>-0.136368921784898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.007063783525691923</v>
+        <v>0.01529434432995942</v>
       </c>
       <c r="C20">
-        <v>0.03686759732641296</v>
+        <v>0.03594410153581675</v>
       </c>
       <c r="D20">
-        <v>-0.01860240348067403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01609438960127588</v>
+      </c>
+      <c r="E20">
+        <v>0.0476981753341286</v>
+      </c>
+      <c r="F20">
+        <v>-0.02675116449809684</v>
+      </c>
+      <c r="G20">
+        <v>-0.1087056953457832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.001957503790630564</v>
+        <v>0.006648881604991127</v>
       </c>
       <c r="C21">
-        <v>0.0334501002157521</v>
+        <v>0.03219756361298966</v>
       </c>
       <c r="D21">
-        <v>-0.02148681156880686</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02227754741368141</v>
+      </c>
+      <c r="E21">
+        <v>0.06687617723605647</v>
+      </c>
+      <c r="F21">
+        <v>-0.01574798700108397</v>
+      </c>
+      <c r="G21">
+        <v>-0.1517324011447698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0008335314850360376</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.00775853194668972</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002907326024379675</v>
+      </c>
+      <c r="E22">
+        <v>0.02070181163879482</v>
+      </c>
+      <c r="F22">
+        <v>0.002687346714738316</v>
+      </c>
+      <c r="G22">
+        <v>-0.007767134479077708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0008577195680143256</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.007668914585123482</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002893116850297811</v>
+      </c>
+      <c r="E23">
+        <v>0.02062051427691465</v>
+      </c>
+      <c r="F23">
+        <v>0.002434788050689577</v>
+      </c>
+      <c r="G23">
+        <v>-0.007629004285619167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02094891316423824</v>
+        <v>0.03016675761097805</v>
       </c>
       <c r="C24">
-        <v>0.04726290755729651</v>
+        <v>0.04925917481059345</v>
       </c>
       <c r="D24">
-        <v>-0.01285758155221402</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007787858864444413</v>
+      </c>
+      <c r="E24">
+        <v>0.02081104730222445</v>
+      </c>
+      <c r="F24">
+        <v>0.004421482369199027</v>
+      </c>
+      <c r="G24">
+        <v>-0.08452969979678077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.03997511702160695</v>
+        <v>0.04296063781752655</v>
       </c>
       <c r="C25">
-        <v>0.05804247992771962</v>
+        <v>0.05540437339229799</v>
       </c>
       <c r="D25">
-        <v>-0.01756938423828071</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01195751525606738</v>
+      </c>
+      <c r="E25">
+        <v>0.01432786104342823</v>
+      </c>
+      <c r="F25">
+        <v>0.005033875880566717</v>
+      </c>
+      <c r="G25">
+        <v>-0.09097063155183645</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.002801293145133167</v>
+        <v>0.0146534470143715</v>
       </c>
       <c r="C26">
-        <v>0.003735739077605386</v>
+        <v>0.009650170816017477</v>
       </c>
       <c r="D26">
-        <v>-0.02341268591942076</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02463015232103311</v>
+      </c>
+      <c r="E26">
+        <v>0.01607745508459062</v>
+      </c>
+      <c r="F26">
+        <v>-0.005601267226523</v>
+      </c>
+      <c r="G26">
+        <v>-0.08576835394643872</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1256328938764646</v>
+        <v>0.1268990761282308</v>
       </c>
       <c r="C28">
-        <v>-0.2040689687489282</v>
+        <v>-0.2443064784323437</v>
       </c>
       <c r="D28">
-        <v>0.05614590940110416</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006580745929081546</v>
+      </c>
+      <c r="E28">
+        <v>0.0007561959827993064</v>
+      </c>
+      <c r="F28">
+        <v>-0.02590026407389724</v>
+      </c>
+      <c r="G28">
+        <v>-0.05231586334826345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01177514301377295</v>
+        <v>0.007658571927558825</v>
       </c>
       <c r="C29">
-        <v>0.02241161003642941</v>
+        <v>0.01977332860510369</v>
       </c>
       <c r="D29">
-        <v>-0.01049490937505584</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01057131255038155</v>
+      </c>
+      <c r="E29">
+        <v>0.0129635277430607</v>
+      </c>
+      <c r="F29">
+        <v>-0.01233641191261734</v>
+      </c>
+      <c r="G29">
+        <v>-0.1053105976174971</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02686332860825317</v>
+        <v>0.03812936843685268</v>
       </c>
       <c r="C30">
-        <v>0.06800069919137709</v>
+        <v>0.06428839728631941</v>
       </c>
       <c r="D30">
-        <v>-0.03613383058912444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.03190809879836756</v>
+      </c>
+      <c r="E30">
+        <v>0.07954037780801655</v>
+      </c>
+      <c r="F30">
+        <v>0.0171766808833443</v>
+      </c>
+      <c r="G30">
+        <v>-0.1225631898610902</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.03575996775326901</v>
+        <v>0.05409297202217673</v>
       </c>
       <c r="C31">
-        <v>0.02666177299667979</v>
+        <v>0.03855022170059718</v>
       </c>
       <c r="D31">
-        <v>-0.005820050829073196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004597162477063673</v>
+      </c>
+      <c r="E31">
+        <v>0.003519404036303729</v>
+      </c>
+      <c r="F31">
+        <v>-0.03513562536649668</v>
+      </c>
+      <c r="G31">
+        <v>-0.09846426621963343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.005919906254251262</v>
+        <v>0.002069338102246836</v>
       </c>
       <c r="C32">
-        <v>0.03491717662989215</v>
+        <v>0.01925161856318717</v>
       </c>
       <c r="D32">
-        <v>0.0002550453231020139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0008023118453762795</v>
+      </c>
+      <c r="E32">
+        <v>0.05286549921917161</v>
+      </c>
+      <c r="F32">
+        <v>0.02476304100960588</v>
+      </c>
+      <c r="G32">
+        <v>-0.07265359866050466</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02274795735098204</v>
+        <v>0.02693221133836525</v>
       </c>
       <c r="C33">
-        <v>0.05302719782972223</v>
+        <v>0.04663527344042177</v>
       </c>
       <c r="D33">
-        <v>-0.02017739398621459</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01857814077886161</v>
+      </c>
+      <c r="E33">
+        <v>0.06809141819724041</v>
+      </c>
+      <c r="F33">
+        <v>0.003898794789961852</v>
+      </c>
+      <c r="G33">
+        <v>-0.1581130796190971</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.0465776281877586</v>
+        <v>0.04057478279891773</v>
       </c>
       <c r="C34">
-        <v>0.06085041463681991</v>
+        <v>0.05788642014987889</v>
       </c>
       <c r="D34">
-        <v>-0.0005072873051778296</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.003866789945845442</v>
+      </c>
+      <c r="E34">
+        <v>0.01919005080984224</v>
+      </c>
+      <c r="F34">
+        <v>0.01886077568791398</v>
+      </c>
+      <c r="G34">
+        <v>-0.07904755473824776</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.00800167421993901</v>
+        <v>0.0158223037237241</v>
       </c>
       <c r="C36">
-        <v>0.002257735315171805</v>
+        <v>0.005697790546801218</v>
       </c>
       <c r="D36">
-        <v>-0.010783071977808</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01380957255032294</v>
+      </c>
+      <c r="E36">
+        <v>0.02022355986140158</v>
+      </c>
+      <c r="F36">
+        <v>-0.008242883396601184</v>
+      </c>
+      <c r="G36">
+        <v>-0.09648566846228404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02830906628924088</v>
+        <v>0.03040101302499502</v>
       </c>
       <c r="C38">
-        <v>0.01971088947860603</v>
+        <v>0.02421222293745017</v>
       </c>
       <c r="D38">
-        <v>0.007978820321954591</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.006243772763944694</v>
+      </c>
+      <c r="E38">
+        <v>0.02044389560755803</v>
+      </c>
+      <c r="F38">
+        <v>-0.01233957630098961</v>
+      </c>
+      <c r="G38">
+        <v>-0.09188584497906602</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0251099042768409</v>
+        <v>0.03614923857526019</v>
       </c>
       <c r="C39">
-        <v>0.08402834864087572</v>
+        <v>0.0760967672298086</v>
       </c>
       <c r="D39">
-        <v>-0.02396011758984936</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01342189124709649</v>
+      </c>
+      <c r="E39">
+        <v>0.04014072948375985</v>
+      </c>
+      <c r="F39">
+        <v>0.01406912067496636</v>
+      </c>
+      <c r="G39">
+        <v>-0.09321856208076944</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01317402020584586</v>
+        <v>0.01650347607707642</v>
       </c>
       <c r="C40">
-        <v>0.02217636267766219</v>
+        <v>0.03202709366336949</v>
       </c>
       <c r="D40">
-        <v>-0.01425110966604928</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01567005497318472</v>
+      </c>
+      <c r="E40">
+        <v>0.03504050882452652</v>
+      </c>
+      <c r="F40">
+        <v>-0.0273127383911841</v>
+      </c>
+      <c r="G40">
+        <v>-0.1200824532810731</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.00958104419529642</v>
+        <v>0.01888092446550358</v>
       </c>
       <c r="C41">
-        <v>-0.004115707692621168</v>
+        <v>-0.001845084678709266</v>
       </c>
       <c r="D41">
-        <v>-0.001571671220594574</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.005794349240255905</v>
+      </c>
+      <c r="E41">
+        <v>0.01714282258911429</v>
+      </c>
+      <c r="F41">
+        <v>-0.01432059672407554</v>
+      </c>
+      <c r="G41">
+        <v>-0.09092209353523562</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.008223119862640727</v>
+        <v>0.004694139103856962</v>
       </c>
       <c r="C42">
-        <v>0.03291615214596824</v>
+        <v>0.02653444214066536</v>
       </c>
       <c r="D42">
-        <v>-0.09601470767377558</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08364767643694891</v>
+      </c>
+      <c r="E42">
+        <v>-0.008929253338820727</v>
+      </c>
+      <c r="F42">
+        <v>-0.03432187778096094</v>
+      </c>
+      <c r="G42">
+        <v>0.02187704454252635</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.027838127675609</v>
+        <v>0.03338763348267887</v>
       </c>
       <c r="C43">
-        <v>0.01074283688460967</v>
+        <v>0.01194510278299701</v>
       </c>
       <c r="D43">
-        <v>-0.00260846315424281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.007452414284367201</v>
+      </c>
+      <c r="E43">
+        <v>0.03554041318887698</v>
+      </c>
+      <c r="F43">
+        <v>-0.01029680196572275</v>
+      </c>
+      <c r="G43">
+        <v>-0.1181224220841987</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01381401745192678</v>
+        <v>0.01389698020320025</v>
       </c>
       <c r="C44">
-        <v>0.05570816870893712</v>
+        <v>0.05103555582980668</v>
       </c>
       <c r="D44">
-        <v>-0.01351494843654942</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.008727001358592531</v>
+      </c>
+      <c r="E44">
+        <v>0.03901627674648929</v>
+      </c>
+      <c r="F44">
+        <v>-0.01805231808111568</v>
+      </c>
+      <c r="G44">
+        <v>-0.1207623389349892</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.001358394360799368</v>
+        <v>0.01028088745116664</v>
       </c>
       <c r="C46">
-        <v>0.008407300782468295</v>
+        <v>0.01489995969905933</v>
       </c>
       <c r="D46">
-        <v>-0.01294778940730482</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01352550557323554</v>
+      </c>
+      <c r="E46">
+        <v>0.006051932677417523</v>
+      </c>
+      <c r="F46">
+        <v>-0.01613953732549973</v>
+      </c>
+      <c r="G46">
+        <v>-0.1130897005132157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.06285218560014082</v>
+        <v>0.08246806320929879</v>
       </c>
       <c r="C47">
-        <v>0.06966370977541335</v>
+        <v>0.07138324393292511</v>
       </c>
       <c r="D47">
-        <v>-0.004282740983143332</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004545444920537391</v>
+      </c>
+      <c r="E47">
+        <v>-0.00495543360472834</v>
+      </c>
+      <c r="F47">
+        <v>-0.04353309126826815</v>
+      </c>
+      <c r="G47">
+        <v>-0.08918086354395841</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01055182980778529</v>
+        <v>0.01795240831649461</v>
       </c>
       <c r="C48">
-        <v>0.0106396908043623</v>
+        <v>0.01058046408164692</v>
       </c>
       <c r="D48">
-        <v>-0.001973677012885926</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.003457636311510905</v>
+      </c>
+      <c r="E48">
+        <v>0.01527989845551089</v>
+      </c>
+      <c r="F48">
+        <v>-0.02043973395853236</v>
+      </c>
+      <c r="G48">
+        <v>-0.1087346214548971</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.07081083311915977</v>
+        <v>0.07716448996001873</v>
       </c>
       <c r="C50">
-        <v>0.06998519911246809</v>
+        <v>0.06714755296588262</v>
       </c>
       <c r="D50">
-        <v>-0.004327929638914266</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001069635636733601</v>
+      </c>
+      <c r="E50">
+        <v>0.001299284761440156</v>
+      </c>
+      <c r="F50">
+        <v>-0.04371878419600311</v>
+      </c>
+      <c r="G50">
+        <v>-0.1022756250422416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01407380491209104</v>
+        <v>0.01171127245151386</v>
       </c>
       <c r="C51">
-        <v>0.03986413924973325</v>
+        <v>0.03047077607390466</v>
       </c>
       <c r="D51">
-        <v>-0.013873658723685</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01228471246597379</v>
+      </c>
+      <c r="E51">
+        <v>0.04016462477882231</v>
+      </c>
+      <c r="F51">
+        <v>0.009239631186420579</v>
+      </c>
+      <c r="G51">
+        <v>-0.1120738870969378</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.09128895441496773</v>
+        <v>0.08614269414200286</v>
       </c>
       <c r="C53">
-        <v>0.08674442776846858</v>
+        <v>0.08365949206355776</v>
       </c>
       <c r="D53">
-        <v>-0.005000587032047301</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003634654332015898</v>
+      </c>
+      <c r="E53">
+        <v>-0.02614384104892933</v>
+      </c>
+      <c r="F53">
+        <v>-0.048134903163694</v>
+      </c>
+      <c r="G53">
+        <v>-0.09309483987883793</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0267999345694793</v>
+        <v>0.03145106706914277</v>
       </c>
       <c r="C54">
-        <v>0.005770135962384516</v>
+        <v>0.01402099548479497</v>
       </c>
       <c r="D54">
-        <v>0.004825936170440375</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0003630906859395531</v>
+      </c>
+      <c r="E54">
+        <v>0.02713639901468904</v>
+      </c>
+      <c r="F54">
+        <v>-0.01229246692633422</v>
+      </c>
+      <c r="G54">
+        <v>-0.113197413779662</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.06812792941588318</v>
+        <v>0.08009705693516504</v>
       </c>
       <c r="C55">
-        <v>0.07210681992875409</v>
+        <v>0.06665225632605655</v>
       </c>
       <c r="D55">
-        <v>-0.004183791121558216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005643902145814813</v>
+      </c>
+      <c r="E55">
+        <v>-0.029074259901216</v>
+      </c>
+      <c r="F55">
+        <v>-0.0492754936737485</v>
+      </c>
+      <c r="G55">
+        <v>-0.07059857322723707</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.139446094155989</v>
+        <v>0.1422260769550168</v>
       </c>
       <c r="C56">
-        <v>0.1108672758608334</v>
+        <v>0.102797808928743</v>
       </c>
       <c r="D56">
-        <v>0.002369513545402541</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01276144378509517</v>
+      </c>
+      <c r="E56">
+        <v>-0.03361099957588187</v>
+      </c>
+      <c r="F56">
+        <v>-0.05573985179538683</v>
+      </c>
+      <c r="G56">
+        <v>-0.05362381663980779</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.009466564527479307</v>
+        <v>0.003715179832481475</v>
       </c>
       <c r="C57">
-        <v>0.004175526168817686</v>
+        <v>0.003316352835353366</v>
       </c>
       <c r="D57">
-        <v>-0.0220579775653529</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02290047408011586</v>
+      </c>
+      <c r="E57">
+        <v>0.02509872276689735</v>
+      </c>
+      <c r="F57">
+        <v>-0.0005313655218229171</v>
+      </c>
+      <c r="G57">
+        <v>-0.01230707927479158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.03750175594061819</v>
+        <v>0.03916074755217901</v>
       </c>
       <c r="C58">
-        <v>0.07025841328981115</v>
+        <v>0.03191838163379192</v>
       </c>
       <c r="D58">
-        <v>-0.01082263870282171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03632574607892934</v>
+      </c>
+      <c r="E58">
+        <v>0.7567628412029739</v>
+      </c>
+      <c r="F58">
+        <v>-0.5405639268203454</v>
+      </c>
+      <c r="G58">
+        <v>0.3017553887906985</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1758215921206834</v>
+        <v>0.1539146789516908</v>
       </c>
       <c r="C59">
-        <v>-0.1957407160932165</v>
+        <v>-0.2078964213176497</v>
       </c>
       <c r="D59">
-        <v>0.06725976583768516</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01031294979061478</v>
+      </c>
+      <c r="E59">
+        <v>0.02503432454703263</v>
+      </c>
+      <c r="F59">
+        <v>-0.005493985284578382</v>
+      </c>
+      <c r="G59">
+        <v>-0.03745641586819413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.295371815335664</v>
+        <v>0.2845700416303107</v>
       </c>
       <c r="C60">
-        <v>0.1309968004351476</v>
+        <v>0.1041798978065326</v>
       </c>
       <c r="D60">
-        <v>-0.00804301266537908</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01720047956654593</v>
+      </c>
+      <c r="E60">
+        <v>0.1086933909622292</v>
+      </c>
+      <c r="F60">
+        <v>0.3130963953145644</v>
+      </c>
+      <c r="G60">
+        <v>0.1681788143727444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.02488615098640493</v>
+        <v>0.03881100195980622</v>
       </c>
       <c r="C61">
-        <v>0.06530413073783072</v>
+        <v>0.06253251393607046</v>
       </c>
       <c r="D61">
-        <v>-0.01404450325756397</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.007243977415499437</v>
+      </c>
+      <c r="E61">
+        <v>0.03737560011666505</v>
+      </c>
+      <c r="F61">
+        <v>0.007557673055376529</v>
+      </c>
+      <c r="G61">
+        <v>-0.09069548453987589</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01057617862631578</v>
+        <v>0.0144926273194431</v>
       </c>
       <c r="C63">
-        <v>0.02861102826238965</v>
+        <v>0.026621433856122</v>
       </c>
       <c r="D63">
-        <v>-0.01225638350019655</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.009166698042205206</v>
+      </c>
+      <c r="E63">
+        <v>0.01100276884084733</v>
+      </c>
+      <c r="F63">
+        <v>-0.0162704488224165</v>
+      </c>
+      <c r="G63">
+        <v>-0.09295212482503086</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04138619798031988</v>
+        <v>0.05044421254659286</v>
       </c>
       <c r="C64">
-        <v>0.03303131956579434</v>
+        <v>0.0466331956807874</v>
       </c>
       <c r="D64">
-        <v>-0.007108457589258759</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006395564974958447</v>
+      </c>
+      <c r="E64">
+        <v>0.00925510858947985</v>
+      </c>
+      <c r="F64">
+        <v>0.005429024764195652</v>
+      </c>
+      <c r="G64">
+        <v>-0.09529900746657707</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0739350947964806</v>
+        <v>0.07050444104991703</v>
       </c>
       <c r="C65">
-        <v>0.07915260466221884</v>
+        <v>0.05067951422897703</v>
       </c>
       <c r="D65">
-        <v>-0.02340275744587726</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01901855966871403</v>
+      </c>
+      <c r="E65">
+        <v>0.06159910079615168</v>
+      </c>
+      <c r="F65">
+        <v>0.011062745992994</v>
+      </c>
+      <c r="G65">
+        <v>-0.03909141390928529</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.04217170094243564</v>
+        <v>0.04777305352397341</v>
       </c>
       <c r="C66">
-        <v>0.1287490939783407</v>
+        <v>0.1026484769721102</v>
       </c>
       <c r="D66">
-        <v>-0.03063736723645559</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01422671297106996</v>
+      </c>
+      <c r="E66">
+        <v>0.06271495392260183</v>
+      </c>
+      <c r="F66">
+        <v>0.02214372208321432</v>
+      </c>
+      <c r="G66">
+        <v>-0.09723258834976059</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0566026032767239</v>
+        <v>0.05371893577129346</v>
       </c>
       <c r="C67">
-        <v>0.02598011250781709</v>
+        <v>0.02964648287725082</v>
       </c>
       <c r="D67">
-        <v>0.00727309762442409</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005444260467716633</v>
+      </c>
+      <c r="E67">
+        <v>0.006807866638317952</v>
+      </c>
+      <c r="F67">
+        <v>-0.008108062449724144</v>
+      </c>
+      <c r="G67">
+        <v>-0.07754340920522508</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1486115419300372</v>
+        <v>0.1549165987152073</v>
       </c>
       <c r="C68">
-        <v>-0.2546238340188375</v>
+        <v>-0.2726253496261314</v>
       </c>
       <c r="D68">
-        <v>0.05546251360054648</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005649934578820987</v>
+      </c>
+      <c r="E68">
+        <v>-0.003047650922673261</v>
+      </c>
+      <c r="F68">
+        <v>-0.04337929868347369</v>
+      </c>
+      <c r="G68">
+        <v>-0.02147368541693487</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.07327726017494907</v>
+        <v>0.08364966842574736</v>
       </c>
       <c r="C69">
-        <v>0.06643108612499017</v>
+        <v>0.07305142078581636</v>
       </c>
       <c r="D69">
-        <v>0.001969599869967163</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008076717016809263</v>
+      </c>
+      <c r="E69">
+        <v>-0.01140145563825752</v>
+      </c>
+      <c r="F69">
+        <v>-0.01958432005615222</v>
+      </c>
+      <c r="G69">
+        <v>-0.1020977000151951</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1502096323872501</v>
+        <v>0.1416081671004062</v>
       </c>
       <c r="C71">
-        <v>-0.2022192966803214</v>
+        <v>-0.2343594224765622</v>
       </c>
       <c r="D71">
-        <v>0.05678357721080466</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002532300873787028</v>
+      </c>
+      <c r="E71">
+        <v>0.02803871554898752</v>
+      </c>
+      <c r="F71">
+        <v>-0.03059028893428802</v>
+      </c>
+      <c r="G71">
+        <v>-0.06321312608631452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.06130838830329743</v>
+        <v>0.08377385573663147</v>
       </c>
       <c r="C72">
-        <v>0.07183603199581476</v>
+        <v>0.0640370608988397</v>
       </c>
       <c r="D72">
-        <v>0.0003775286669627087</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.007214721395101689</v>
+      </c>
+      <c r="E72">
+        <v>0.002059004032623585</v>
+      </c>
+      <c r="F72">
+        <v>0.01697257091220807</v>
+      </c>
+      <c r="G72">
+        <v>-0.08785506247366766</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4163574987662313</v>
+        <v>0.366527400126622</v>
       </c>
       <c r="C73">
-        <v>0.1671395111113922</v>
+        <v>0.1000785685852325</v>
       </c>
       <c r="D73">
-        <v>-0.004789732170135494</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02960211990336802</v>
+      </c>
+      <c r="E73">
+        <v>0.2442669790417835</v>
+      </c>
+      <c r="F73">
+        <v>0.5419603963254602</v>
+      </c>
+      <c r="G73">
+        <v>0.3337485319593282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1015343071072706</v>
+        <v>0.1087896397058766</v>
       </c>
       <c r="C74">
-        <v>0.1295048520056974</v>
+        <v>0.1039073313805255</v>
       </c>
       <c r="D74">
-        <v>-0.007896279316762683</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009161645923058091</v>
+      </c>
+      <c r="E74">
+        <v>-0.00713252729906445</v>
+      </c>
+      <c r="F74">
+        <v>-0.05755625932320449</v>
+      </c>
+      <c r="G74">
+        <v>-0.07493661301654969</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2399290307879064</v>
+        <v>0.2526638662835593</v>
       </c>
       <c r="C75">
-        <v>0.1675270088297131</v>
+        <v>0.147744574209446</v>
       </c>
       <c r="D75">
-        <v>0.01056444722872286</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03165461784387463</v>
+      </c>
+      <c r="E75">
+        <v>-0.0930608871926028</v>
+      </c>
+      <c r="F75">
+        <v>-0.129540530928612</v>
+      </c>
+      <c r="G75">
+        <v>-0.01743701396786725</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.110800521456377</v>
+        <v>0.122127478980639</v>
       </c>
       <c r="C76">
-        <v>0.127905055801592</v>
+        <v>0.1064522442879614</v>
       </c>
       <c r="D76">
-        <v>-0.0003290313192512158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01800155166307931</v>
+      </c>
+      <c r="E76">
+        <v>-0.03799492184651018</v>
+      </c>
+      <c r="F76">
+        <v>-0.08093121385794907</v>
+      </c>
+      <c r="G76">
+        <v>-0.06853320300186463</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.05385700671936772</v>
+        <v>0.06837779193465639</v>
       </c>
       <c r="C77">
-        <v>0.06170998295933081</v>
+        <v>0.06165201814052374</v>
       </c>
       <c r="D77">
-        <v>-0.01421604520222044</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01240519267738009</v>
+      </c>
+      <c r="E77">
+        <v>0.07413308607567605</v>
+      </c>
+      <c r="F77">
+        <v>0.0001476484739006147</v>
+      </c>
+      <c r="G77">
+        <v>-0.0913791428836089</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04155876369961436</v>
+        <v>0.041082544865001</v>
       </c>
       <c r="C78">
-        <v>0.05464520992653187</v>
+        <v>0.05323256887551404</v>
       </c>
       <c r="D78">
-        <v>-0.01001592914030101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.009490639382995901</v>
+      </c>
+      <c r="E78">
+        <v>0.05498323978376461</v>
+      </c>
+      <c r="F78">
+        <v>0.03009518068148793</v>
+      </c>
+      <c r="G78">
+        <v>-0.09685031721578405</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001183312132744901</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0004032933164530041</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.001024428818848055</v>
+      </c>
+      <c r="E79">
+        <v>0.008624065194236899</v>
+      </c>
+      <c r="F79">
+        <v>-0.0009107644871626414</v>
+      </c>
+      <c r="G79">
+        <v>-0.009064906445384697</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04717349872867158</v>
+        <v>0.04096778185687234</v>
       </c>
       <c r="C80">
-        <v>0.06331347131538632</v>
+        <v>0.04822745912627015</v>
       </c>
       <c r="D80">
-        <v>-0.01929931682927184</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01496394342601702</v>
+      </c>
+      <c r="E80">
+        <v>0.0411643514586461</v>
+      </c>
+      <c r="F80">
+        <v>-0.001344615957933291</v>
+      </c>
+      <c r="G80">
+        <v>-0.0520123176633969</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1277325020286951</v>
+        <v>0.1396734164518565</v>
       </c>
       <c r="C81">
-        <v>0.09821641714496175</v>
+        <v>0.09092402870167868</v>
       </c>
       <c r="D81">
-        <v>0.002914131515519273</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01547588616776071</v>
+      </c>
+      <c r="E81">
+        <v>-0.05766673106010282</v>
+      </c>
+      <c r="F81">
+        <v>-0.1026906889894243</v>
+      </c>
+      <c r="G81">
+        <v>-0.0380525242026943</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.04459757257683965</v>
+        <v>0.1698217433229621</v>
       </c>
       <c r="C82">
-        <v>0.03996951220782156</v>
+        <v>0.1175323019962867</v>
       </c>
       <c r="D82">
-        <v>-0.002609276915437051</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01767353807652922</v>
+      </c>
+      <c r="E82">
+        <v>-0.1704415240483567</v>
+      </c>
+      <c r="F82">
+        <v>-0.05526374505900125</v>
+      </c>
+      <c r="G82">
+        <v>-0.02582111888738443</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02485535553926584</v>
+        <v>0.03181459653860861</v>
       </c>
       <c r="C83">
-        <v>0.01982634245090156</v>
+        <v>0.0290846079832412</v>
       </c>
       <c r="D83">
-        <v>-0.005576232722768469</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.007898097340815055</v>
+      </c>
+      <c r="E83">
+        <v>0.04254319626504397</v>
+      </c>
+      <c r="F83">
+        <v>0.03141950849207259</v>
+      </c>
+      <c r="G83">
+        <v>-0.05190024587067814</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2329758182772374</v>
+        <v>0.2128723395452661</v>
       </c>
       <c r="C85">
-        <v>0.1704054338274628</v>
+        <v>0.1334589549856351</v>
       </c>
       <c r="D85">
-        <v>-0.0005466000191900382</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01880665823576481</v>
+      </c>
+      <c r="E85">
+        <v>-0.1068078165247201</v>
+      </c>
+      <c r="F85">
+        <v>-0.0655315621462197</v>
+      </c>
+      <c r="G85">
+        <v>0.02108490600786364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01016564662038932</v>
+        <v>0.01107776600785555</v>
       </c>
       <c r="C86">
-        <v>0.02521331606952043</v>
+        <v>0.02625554612385258</v>
       </c>
       <c r="D86">
-        <v>-0.01048238570373764</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01479576717941709</v>
+      </c>
+      <c r="E86">
+        <v>0.07633980671824604</v>
+      </c>
+      <c r="F86">
+        <v>0.02326323703302022</v>
+      </c>
+      <c r="G86">
+        <v>-0.1709771952785197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01294841811289701</v>
+        <v>0.02064234987198463</v>
       </c>
       <c r="C87">
-        <v>0.02361437173906202</v>
+        <v>0.01519161769049173</v>
       </c>
       <c r="D87">
-        <v>-0.01130979827771597</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01421274686482828</v>
+      </c>
+      <c r="E87">
+        <v>0.1016529808980202</v>
+      </c>
+      <c r="F87">
+        <v>-0.02529391839077741</v>
+      </c>
+      <c r="G87">
+        <v>-0.1094195764283201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.08380858175684373</v>
+        <v>0.08959677183536838</v>
       </c>
       <c r="C88">
-        <v>0.06282453419925013</v>
+        <v>0.06365022076370576</v>
       </c>
       <c r="D88">
-        <v>-0.02721282547434212</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02286983797694453</v>
+      </c>
+      <c r="E88">
+        <v>0.005394436594736045</v>
+      </c>
+      <c r="F88">
+        <v>-0.01720510890480189</v>
+      </c>
+      <c r="G88">
+        <v>-0.1043968079825048</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2498916831524063</v>
+        <v>0.2229361357088747</v>
       </c>
       <c r="C89">
-        <v>-0.3506281751129903</v>
+        <v>-0.3686262317349123</v>
       </c>
       <c r="D89">
-        <v>0.09026113512260178</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.000636764779979837</v>
+      </c>
+      <c r="E89">
+        <v>-0.02174623872479282</v>
+      </c>
+      <c r="F89">
+        <v>-0.01037135405223582</v>
+      </c>
+      <c r="G89">
+        <v>-0.08061452257118049</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.222866709612639</v>
+        <v>0.2038947871699504</v>
       </c>
       <c r="C90">
-        <v>-0.3077312200839684</v>
+        <v>-0.319463516575105</v>
       </c>
       <c r="D90">
-        <v>0.08424200030173509</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004308749197171336</v>
+      </c>
+      <c r="E90">
+        <v>-0.009765103722236958</v>
+      </c>
+      <c r="F90">
+        <v>-0.04737288301515036</v>
+      </c>
+      <c r="G90">
+        <v>-0.04959007718640735</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1835105393706711</v>
+        <v>0.1880790329839015</v>
       </c>
       <c r="C91">
-        <v>0.1307403109351763</v>
+        <v>0.1326929437976662</v>
       </c>
       <c r="D91">
-        <v>0.008972398952577869</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02294742001060019</v>
+      </c>
+      <c r="E91">
+        <v>-0.07829771826813602</v>
+      </c>
+      <c r="F91">
+        <v>-0.1022132954876213</v>
+      </c>
+      <c r="G91">
+        <v>-0.04109972305933202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2189382799774457</v>
+        <v>0.1874081387593964</v>
       </c>
       <c r="C92">
-        <v>-0.2260245583466639</v>
+        <v>-0.2723726301996402</v>
       </c>
       <c r="D92">
-        <v>0.1040410110101506</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03927958785986501</v>
+      </c>
+      <c r="E92">
+        <v>0.01906499356128358</v>
+      </c>
+      <c r="F92">
+        <v>-0.05883738030859424</v>
+      </c>
+      <c r="G92">
+        <v>-0.07403790500577775</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2376737872436603</v>
+        <v>0.226947471442755</v>
       </c>
       <c r="C93">
-        <v>-0.2897445599395008</v>
+        <v>-0.3143406256285625</v>
       </c>
       <c r="D93">
-        <v>0.08780408101248546</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01031912767723235</v>
+      </c>
+      <c r="E93">
+        <v>0.003973445674768775</v>
+      </c>
+      <c r="F93">
+        <v>-0.03787414121556901</v>
+      </c>
+      <c r="G93">
+        <v>-0.05745267325692277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2544982238204443</v>
+        <v>0.3361358328597596</v>
       </c>
       <c r="C94">
-        <v>0.1717209794033508</v>
+        <v>0.1964631208551816</v>
       </c>
       <c r="D94">
-        <v>-0.009652368956535243</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02953991692547784</v>
+      </c>
+      <c r="E94">
+        <v>-0.3722916713191714</v>
+      </c>
+      <c r="F94">
+        <v>-0.3974294262647604</v>
+      </c>
+      <c r="G94">
+        <v>0.364683463562091</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.06562841393022331</v>
+        <v>0.0827973334912005</v>
       </c>
       <c r="C95">
-        <v>0.1079934846389015</v>
+        <v>0.08619277822621579</v>
       </c>
       <c r="D95">
-        <v>-0.007523571917958511</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.008041642554723722</v>
+      </c>
+      <c r="E95">
+        <v>0.1336862408791826</v>
+      </c>
+      <c r="F95">
+        <v>0.165438851729313</v>
+      </c>
+      <c r="G95">
+        <v>-0.07254580947364288</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1992747259214598</v>
+        <v>0.191322662157891</v>
       </c>
       <c r="C98">
-        <v>0.07608581978986849</v>
+        <v>0.05123943260841109</v>
       </c>
       <c r="D98">
-        <v>0.02216232697237832</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.009481594684170326</v>
+      </c>
+      <c r="E98">
+        <v>0.1207716415536321</v>
+      </c>
+      <c r="F98">
+        <v>0.1935496948714529</v>
+      </c>
+      <c r="G98">
+        <v>0.05766389753539589</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01155022740773766</v>
+        <v>0.007502341392433009</v>
       </c>
       <c r="C101">
-        <v>0.02270614392391736</v>
+        <v>0.01966085315359753</v>
       </c>
       <c r="D101">
-        <v>-0.01043262355347263</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01038668175580326</v>
+      </c>
+      <c r="E101">
+        <v>0.01248764143628946</v>
+      </c>
+      <c r="F101">
+        <v>-0.01316253484609336</v>
+      </c>
+      <c r="G101">
+        <v>-0.1049875084092847</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1104892157434182</v>
+        <v>0.1221402022404768</v>
       </c>
       <c r="C102">
-        <v>0.08328218685830778</v>
+        <v>0.09313339436976127</v>
       </c>
       <c r="D102">
-        <v>-0.01003370165509901</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.000330544113279357</v>
+      </c>
+      <c r="E102">
+        <v>-0.04703533895913865</v>
+      </c>
+      <c r="F102">
+        <v>-0.02206137347228157</v>
+      </c>
+      <c r="G102">
+        <v>-0.01980210720278079</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.1100557095226658</v>
+        <v>0.02021067728351865</v>
       </c>
       <c r="C104">
-        <v>-0.217147309209471</v>
+        <v>-0.02816497721037583</v>
       </c>
       <c r="D104">
-        <v>-0.9608417272953284</v>
+        <v>-0.9860920954431017</v>
+      </c>
+      <c r="E104">
+        <v>-0.08654861152042224</v>
+      </c>
+      <c r="F104">
+        <v>-0.02218457971166139</v>
+      </c>
+      <c r="G104">
+        <v>0.03809889349554808</v>
       </c>
     </row>
   </sheetData>
